--- a/biology/Botanique/Tillandsia_caricifolia/Tillandsia_caricifolia.xlsx
+++ b/biology/Botanique/Tillandsia_caricifolia/Tillandsia_caricifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia caricifolia Mez est une espèce de plantes à fleurs de la famille des Bromeliaceae.
 L'épithète caricifolia signifie « à feuille de laîche » (genre Carex).
@@ -512,12 +524,14 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia caricifolia E.Morren ex Mez in C.DC., Monogr. Phan. 9: 672, n°12 (1896)
-Diagnose originale[1]  :
+Diagnose originale  :
 « foliis densissime fasciculatis, perangustis, basin versus ferrugineo-umbrino-lepidotis ; inflorescentia bipinnatim panniculata[sic] ; spicis erectis, geniculatatis, subpinnatis, abbreviatis ; bracteolis florigeris vix imbricatis, dorso glabris valdeque prominenti-venosis, acutis, sepala exacte aequantibus; floribus suberectis; sepalis posticis inter sese ad 2,5 mm., cum antico vix ad 1 mm. connatis, peracutis. »
-Type : Mez[1] cite deux spécimens différents, il n'y a donc pas d'holotype explicitement désigné :
+Type : Mez cite deux spécimens différents, il n'y a donc pas d'holotype explicitement désigné :
 leg. Liebmann, Brom. n° 49 ; « Mexico prope Mirador : in itere inter Vera Cruz et Cordoba : Karwinsky » .
 leg. Friedrichsthal,  n° 836 ; « Guatemala prov. Chontales in monte Aragua » .
 Quant aux herbiers de dépôt, ils ne sont pas précisés parmi les trois cités (Haun., Petrop., Vindob.).
@@ -551,10 +565,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymie nomenclaturale
-(aucune)
-Synonymie taxonomique
-Tillandsia festucoides Brongn[2].</t>
+          <t>Synonymie nomenclaturale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(aucune)</t>
         </is>
       </c>
     </row>
@@ -579,10 +596,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie taxonomique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tillandsia festucoides Brongn.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -605,16 +632,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et habitat</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Biotype : plante herbacée en rosette acaule monocarpique vivace par ses rejets latéraux ; épiphyte[1].
-Habitat : ?
-Altitude : ?</t>
-        </is>
-      </c>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,16 +660,16 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Amérique centrale :
- Guatemala
-Chontales [1]
- Mexique
-Veracruz[1]</t>
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Biotype : plante herbacée en rosette acaule monocarpique vivace par ses rejets latéraux ; épiphyte.
+Habitat : ?
+Altitude : ?</t>
         </is>
       </c>
     </row>
@@ -671,10 +694,48 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Amérique centrale :
+ Guatemala
+Chontales 
+ Mexique
+Veracruz</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tillandsia_caricifolia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_caricifolia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
